--- a/Data_Base.xlsx
+++ b/Data_Base.xlsx
@@ -657,7 +657,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>987654321</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
